--- a/data/trans_camb/P1403-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1403-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.241227834333366</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.910947960424554</v>
+        <v>8.91094796042457</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.94208221524252</v>
@@ -655,7 +655,7 @@
         <v>4.534555841194776</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>15.16214000229774</v>
+        <v>15.16214000229775</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.103136282095237</v>
@@ -664,7 +664,7 @@
         <v>4.469729133263106</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>12.77800364609237</v>
+        <v>12.77800364609236</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.699462580232434</v>
+        <v>4.638900611151824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0930911192970299</v>
+        <v>0.04591726046072515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.410879541492075</v>
+        <v>4.515322289826965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.293118466904086</v>
+        <v>4.854619785269064</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2916074978591344</v>
+        <v>0.108871747695101</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.48567788703113</v>
+        <v>11.47519038842255</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.198094304552794</v>
+        <v>6.322802252153188</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.672751185560515</v>
+        <v>1.318632843055362</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.910819872806176</v>
+        <v>9.880955033015791</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.78690088915916</v>
+        <v>13.28863835997539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.19414052948656</v>
+        <v>8.966463966609753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.79131965171155</v>
+        <v>13.70598617675723</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.88669481910125</v>
+        <v>12.44819593152522</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.43940491712238</v>
+        <v>8.770627284369443</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.07397385384601</v>
+        <v>19.06043623540226</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.8850253517086</v>
+        <v>12.08184548359004</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.511347649361095</v>
+        <v>7.491134518725653</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.66719238534486</v>
+        <v>15.54212478554284</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1624484868427465</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3413091842855349</v>
+        <v>0.3413091842855355</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.266771300222948</v>
@@ -760,7 +760,7 @@
         <v>0.1352805005110643</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4523357877073199</v>
+        <v>0.4523357877073202</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3008169270737013</v>
@@ -769,7 +769,7 @@
         <v>0.1477040594640566</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4222544485590558</v>
+        <v>0.4222544485590554</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1714734263550015</v>
+        <v>0.172836904919006</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.003186856621289315</v>
+        <v>-0.0006203284209964933</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1583871170086109</v>
+        <v>0.1570236544471404</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1510252605815734</v>
+        <v>0.1407042424725347</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008035210237958248</v>
+        <v>0.001366568306203201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3197695722982521</v>
+        <v>0.3200049820208318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1962138720538266</v>
+        <v>0.199614101723559</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05305867655210945</v>
+        <v>0.0413939193428156</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3179348175377437</v>
+        <v>0.3094719974876456</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5261258432744859</v>
+        <v>0.5483283312072833</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3307379885511409</v>
+        <v>0.3747881228268836</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5640537272177684</v>
+        <v>0.5676165754117374</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4075479906851306</v>
+        <v>0.3999410088920875</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2671867511113417</v>
+        <v>0.2689436014510606</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6053234125739454</v>
+        <v>0.6009262894540489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4184971012255366</v>
+        <v>0.4135441565502476</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2569046604588655</v>
+        <v>0.2598965063838984</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5492362338814767</v>
+        <v>0.5388558754928529</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.932087543664078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.68911142258724</v>
+        <v>8.689111422587244</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.766559937551917</v>
@@ -878,7 +878,7 @@
         <v>4.155318953905746</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.87677436965932</v>
+        <v>7.876774369659323</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8650402769791701</v>
+        <v>0.9679874663918397</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.276451439082557</v>
+        <v>1.943090437577689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.87013420882919</v>
+        <v>6.749528637520454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.06597623513803579</v>
+        <v>-0.03207562976184979</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.421818575898608</v>
+        <v>2.603049775299609</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.343206165532846</v>
+        <v>5.278949114464028</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.89155276930334</v>
+        <v>0.9261754859572769</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.859441430920093</v>
+        <v>2.74374415665828</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.608927457014693</v>
+        <v>6.622590245944939</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.318549380976437</v>
+        <v>4.487820669713587</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.885512780341995</v>
+        <v>5.708975132248847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.76896446841142</v>
+        <v>10.70463244395838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.726528655849823</v>
+        <v>3.550245983063295</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.351723698032306</v>
+        <v>6.469937142244047</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.757705596869769</v>
+        <v>8.789349050529701</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.579000561329177</v>
+        <v>3.576310847543323</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.486358029783811</v>
+        <v>5.500511730766322</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.069998510574932</v>
+        <v>9.173060006258309</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.5613221589206751</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.240407475334086</v>
+        <v>1.240407475334087</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2692861853439958</v>
@@ -983,7 +983,7 @@
         <v>0.6119969468488401</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.160094307734829</v>
+        <v>1.16009430773483</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1095428472844018</v>
+        <v>0.1145281141059493</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2818701979129977</v>
+        <v>0.2426231595095064</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8576042164391019</v>
+        <v>0.8423497012596383</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0124954096460539</v>
+        <v>-0.005051409122161875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3166272399293435</v>
+        <v>0.3418468141863006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7058836916376393</v>
+        <v>0.673744994827582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1148763078508467</v>
+        <v>0.1206778438732457</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3681373320850082</v>
+        <v>0.3700903872426938</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8821824521875319</v>
+        <v>0.876143454899811</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7217355631879474</v>
+        <v>0.7232920918991124</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9641345281800339</v>
+        <v>0.9330341097934878</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.762443840454811</v>
+        <v>1.769163583553571</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6557080148748794</v>
+        <v>0.6171916115273013</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.115414688381826</v>
+        <v>1.136781247819475</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.59804054186952</v>
+        <v>1.554748942982613</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5608208725179612</v>
+        <v>0.5855861756399312</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8702039899956654</v>
+        <v>0.9033435585445732</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.471566449995175</v>
+        <v>1.489924092406846</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.942803517283758</v>
+        <v>-1.690548340855042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.488361350024518</v>
+        <v>-0.3834634304043687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.396607748196129</v>
+        <v>6.81808650649896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.28084764441413</v>
+        <v>-2.464960403447331</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.976380255584304</v>
+        <v>-3.047875187808126</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.60628213974355</v>
+        <v>2.886727811762054</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.04411990055069</v>
+        <v>-0.8873036248481946</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.991869068622404</v>
+        <v>-0.7656727037569554</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.409810263286618</v>
+        <v>5.692303029345512</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.466854882283208</v>
+        <v>5.733163163936178</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.934246522447679</v>
+        <v>6.935321150774655</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.21822977111911</v>
+        <v>13.46270539889707</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.474883771301828</v>
+        <v>4.943811214180163</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.082380988811521</v>
+        <v>3.172441785193708</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.563545234704135</v>
+        <v>8.598889490247847</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.876855465554617</v>
+        <v>4.13554510136826</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.912333578824041</v>
+        <v>4.040671631183203</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.09671312081351</v>
+        <v>10.09375858729209</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.4439327961379249</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.41757288099685</v>
+        <v>1.417572880996849</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1764885247884833</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2319964296103517</v>
+        <v>-0.2012811272884815</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06966261751250666</v>
+        <v>-0.04810252538970426</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6848431243141797</v>
+        <v>0.7065763016715761</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3299882716513979</v>
+        <v>-0.3510949386990616</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4263007835917473</v>
+        <v>-0.4240685708806083</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3326369749177046</v>
+        <v>0.3641962039753951</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1575277034274197</v>
+        <v>-0.1228861446130983</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1380573494141208</v>
+        <v>-0.09938139813043642</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7018074941208363</v>
+        <v>0.7278549731977829</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9675883323622902</v>
+        <v>0.9893107463552075</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.292657393206818</v>
+        <v>1.375731434267566</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.476807290407219</v>
+        <v>2.494011213276082</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.010310014190591</v>
+        <v>1.057495023356934</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7106857422632761</v>
+        <v>0.7394487507661747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.119443838378378</v>
+        <v>2.140539265675251</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.688583872292346</v>
+        <v>0.7475670303728664</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7114329718394863</v>
+        <v>0.7631048508993598</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.969573174851945</v>
+        <v>2.010298188950811</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.8395922351140866</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.995752262637464</v>
+        <v>3.995752262637467</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.920500921834483</v>
@@ -1306,7 +1306,7 @@
         <v>1.482173418540789</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.059037157009963</v>
+        <v>5.059037157009961</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.085124196638649</v>
+        <v>2.003796597126733</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3942972146663573</v>
+        <v>0.5691401161526259</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.297997119292662</v>
+        <v>4.333160489526152</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.064261956281525</v>
+        <v>2.142207899912791</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.066913713354295</v>
+        <v>-1.187006357532815</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.262768544554917</v>
+        <v>2.34288404213392</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.555600116549249</v>
+        <v>2.599878284320149</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1965365937053535</v>
+        <v>0.1752218454888192</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.72960759086757</v>
+        <v>3.779336966089962</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.561515459042831</v>
+        <v>5.516096011044541</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.880383903113382</v>
+        <v>3.965784996855217</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.777839218050508</v>
+        <v>7.831055195486947</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.879595938336612</v>
+        <v>5.971313280718687</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.618810462185607</v>
+        <v>2.719405918500764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.680689656897833</v>
+        <v>5.849338630143533</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.183493195086844</v>
+        <v>5.131213213978509</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.793511747864371</v>
+        <v>2.778671535855519</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.313605703672234</v>
+        <v>6.194452780448274</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.04953124199115492</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2357270160204706</v>
+        <v>0.2357270160204708</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.260933166413958</v>
@@ -1411,7 +1411,7 @@
         <v>0.0986476501307596</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3367096732544038</v>
+        <v>0.3367096732544035</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1490823349298153</v>
+        <v>0.1422120792803303</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02753215791856298</v>
+        <v>0.04212709092933344</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3115696147911394</v>
+        <v>0.3165925218187937</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.116228217681629</v>
+        <v>0.1231243411005698</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05730799969124577</v>
+        <v>-0.06520655103210979</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1287602549522518</v>
+        <v>0.1294920424833402</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1653600585570443</v>
+        <v>0.169150188011739</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01283549845508399</v>
+        <v>0.01098127524951334</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2375510327710461</v>
+        <v>0.2442508958418146</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.461295569409426</v>
+        <v>0.4511816674780521</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3136107997674141</v>
+        <v>0.3280636417530275</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.641395811302755</v>
+        <v>0.6422640372293448</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3696364942846279</v>
+        <v>0.3774768636955002</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1620398285875026</v>
+        <v>0.1716194688319423</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3612006811198562</v>
+        <v>0.3644982162695734</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3616598789378693</v>
+        <v>0.3577407106533924</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1923070323644297</v>
+        <v>0.1912812360965122</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4406212494204047</v>
+        <v>0.4385788624497937</v>
       </c>
     </row>
     <row r="28">
